--- a/template/MasterFileBulk.xlsx
+++ b/template/MasterFileBulk.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tabba\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A0089ADA-F7D8-4C6E-9252-F8113C7015F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1366C575-D321-4C6E-B12F-A28DE3815099}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{85779B22-3D0A-41AC-8D62-6D1FDFB4CB73}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Student ID</t>
   </si>
@@ -97,12 +97,18 @@
   </si>
   <si>
     <t>Guardian Email</t>
+  </si>
+  <si>
+    <t>Email</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -132,8 +138,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -448,15 +455,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0662C872-F479-4DF9-A315-61DFA9F0D09E}">
-  <dimension ref="A1:U1"/>
+  <dimension ref="A1:V30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:U1"/>
+      <selection activeCell="U7" sqref="U7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="10" max="10" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.88671875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -473,55 +484,146 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>20</v>
       </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="J2" s="1"/>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="J3" s="1"/>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="J4" s="1"/>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="J5" s="1"/>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="J6" s="1"/>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="J7" s="1"/>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="J9" s="1"/>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="J10" s="1"/>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="J11" s="1"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="J12" s="1"/>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="J13" s="1"/>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="J14" s="1"/>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="J15" s="1"/>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="J16" s="1"/>
+    </row>
+    <row r="17" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J17" s="1"/>
+    </row>
+    <row r="18" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J18" s="1"/>
+    </row>
+    <row r="19" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J19" s="1"/>
+    </row>
+    <row r="20" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J20" s="1"/>
+    </row>
+    <row r="21" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J21" s="1"/>
+    </row>
+    <row r="22" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J22" s="1"/>
+    </row>
+    <row r="23" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J23" s="1"/>
+    </row>
+    <row r="24" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J24" s="1"/>
+    </row>
+    <row r="25" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J25" s="1"/>
+    </row>
+    <row r="26" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J26" s="1"/>
+    </row>
+    <row r="27" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J27" s="1"/>
+    </row>
+    <row r="28" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J28" s="1"/>
+    </row>
+    <row r="29" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J29" s="1"/>
+    </row>
+    <row r="30" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J30" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>